--- a/data/modified/TB.xlsx
+++ b/data/modified/TB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\nthach17\repo\substance-use\data\modified\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D5D00-CF86-4C28-8E21-C98E2F4BDB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31480460-3D53-4C7A-93DE-1426CA7CD6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F05E2B74-6DC0-40AE-B2E0-944DFCB1C700}"/>
+    <workbookView xWindow="28680" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{F05E2B74-6DC0-40AE-B2E0-944DFCB1C700}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +117,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -195,11 +202,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -214,6 +267,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440EC7DA-A983-4F70-899E-FBC4F6C3A871}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37:L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,56 +2082,3240 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>1</v>
-      </c>
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-      <c r="C36" s="5">
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14">
+        <v>1</v>
+      </c>
+      <c r="B36" s="14">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15">
         <v>3</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="15">
         <v>4</v>
       </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
+      <c r="K36" s="19">
+        <v>0</v>
+      </c>
+      <c r="L36" s="19">
         <v>0</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M37">
-        <f>SUM(M1:M36)</f>
-        <v>10</v>
+    <row r="37" spans="1:13" s="27" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="20">
+        <v>6</v>
+      </c>
+      <c r="B37" s="21">
+        <v>6</v>
+      </c>
+      <c r="C37" s="22">
+        <v>7</v>
+      </c>
+      <c r="D37" s="22">
+        <v>7</v>
+      </c>
+      <c r="E37" s="23">
+        <v>2</v>
+      </c>
+      <c r="F37" s="23">
+        <v>2</v>
+      </c>
+      <c r="G37" s="24">
+        <v>2</v>
+      </c>
+      <c r="H37" s="24">
+        <v>4</v>
+      </c>
+      <c r="I37" s="25">
+        <v>1</v>
+      </c>
+      <c r="J37" s="25">
+        <v>1</v>
+      </c>
+      <c r="K37" s="26">
+        <v>1</v>
+      </c>
+      <c r="L37" s="26">
+        <v>1</v>
+      </c>
+      <c r="M37" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>6</v>
+      </c>
+      <c r="B38" s="10">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>2</v>
+      </c>
+      <c r="G38" s="9">
+        <v>5</v>
+      </c>
+      <c r="H38" s="9">
+        <v>5</v>
+      </c>
+      <c r="I38" s="7">
+        <v>1</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="M38" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>6</v>
+      </c>
+      <c r="B39" s="10">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="8">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>6</v>
+      </c>
+      <c r="B40" s="10">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8">
+        <v>1</v>
+      </c>
+      <c r="M40" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>6</v>
+      </c>
+      <c r="B41" s="10">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5">
+        <v>6</v>
+      </c>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>6</v>
+      </c>
+      <c r="B42" s="10">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5">
+        <v>6</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2</v>
+      </c>
+      <c r="F42" s="6">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>3</v>
+      </c>
+      <c r="H42" s="9">
+        <v>3</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8">
+        <v>1</v>
+      </c>
+      <c r="M42" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>6</v>
+      </c>
+      <c r="B43" s="10">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5">
+        <v>7</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
+        <v>3</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7">
+        <v>1</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+      <c r="K43" s="8">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8">
+        <v>1</v>
+      </c>
+      <c r="M43" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="10">
+        <v>6</v>
+      </c>
+      <c r="D44" s="5">
+        <v>6</v>
+      </c>
+      <c r="F44" s="6">
+        <v>2</v>
+      </c>
+      <c r="H44" s="9">
+        <v>4</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8">
+        <v>1</v>
+      </c>
+      <c r="M44" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>6</v>
+      </c>
+      <c r="B45" s="10">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5">
+        <v>5</v>
+      </c>
+      <c r="D45" s="5">
+        <v>6</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="6">
+        <v>2</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1</v>
+      </c>
+      <c r="H45" s="9">
+        <v>5</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="8">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>6</v>
+      </c>
+      <c r="B46" s="10">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5">
+        <v>6</v>
+      </c>
+      <c r="D46" s="5">
+        <v>6</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1</v>
+      </c>
+      <c r="L46" s="8">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>6</v>
+      </c>
+      <c r="B47" s="10">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5">
+        <v>6</v>
+      </c>
+      <c r="D47" s="5">
+        <v>7</v>
+      </c>
+      <c r="E47" s="6">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
+        <v>3</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1</v>
+      </c>
+      <c r="J47" s="7">
+        <v>1</v>
+      </c>
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>6</v>
+      </c>
+      <c r="B48" s="10">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5">
+        <v>6</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2</v>
+      </c>
+      <c r="G48" s="9">
+        <v>5</v>
+      </c>
+      <c r="H48" s="9">
+        <v>5</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
+      <c r="K48" s="8">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>1</v>
+      </c>
+      <c r="B49" s="10">
+        <v>1</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="9">
+        <v>1</v>
+      </c>
+      <c r="H49" s="9">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7">
+        <v>1</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="8">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>6</v>
+      </c>
+      <c r="B50" s="10">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5">
+        <v>6</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9">
+        <v>1</v>
+      </c>
+      <c r="H50" s="9">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>6</v>
+      </c>
+      <c r="B51" s="10">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5">
+        <v>7</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7">
+        <v>1</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="8">
+        <v>1</v>
+      </c>
+      <c r="L51" s="8">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>6</v>
+      </c>
+      <c r="B52" s="10">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5">
+        <v>6</v>
+      </c>
+      <c r="D52" s="5">
+        <v>6</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <v>2</v>
+      </c>
+      <c r="G52" s="9">
+        <v>1</v>
+      </c>
+      <c r="H52" s="9">
+        <v>2</v>
+      </c>
+      <c r="I52" s="7">
+        <v>1</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="8">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>6</v>
+      </c>
+      <c r="B53" s="10">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5">
+        <v>6</v>
+      </c>
+      <c r="D53" s="5">
+        <v>7</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2</v>
+      </c>
+      <c r="G53" s="9">
+        <v>1</v>
+      </c>
+      <c r="H53" s="9">
+        <v>4</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53" s="8">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>6</v>
+      </c>
+      <c r="B54" s="10">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5">
+        <v>6</v>
+      </c>
+      <c r="D54" s="5">
+        <v>6</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2</v>
+      </c>
+      <c r="G54" s="9">
+        <v>2</v>
+      </c>
+      <c r="H54" s="9">
+        <v>5</v>
+      </c>
+      <c r="I54" s="7">
+        <v>1</v>
+      </c>
+      <c r="J54" s="7">
+        <v>1</v>
+      </c>
+      <c r="K54" s="8">
+        <v>1</v>
+      </c>
+      <c r="L54" s="8">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>6</v>
+      </c>
+      <c r="B55" s="10">
+        <v>6</v>
+      </c>
+      <c r="C55" s="5">
+        <v>5</v>
+      </c>
+      <c r="D55" s="5">
+        <v>4</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2</v>
+      </c>
+      <c r="G55" s="9">
+        <v>5</v>
+      </c>
+      <c r="H55" s="9">
+        <v>5</v>
+      </c>
+      <c r="I55" s="7">
+        <v>1</v>
+      </c>
+      <c r="J55" s="7">
+        <v>1</v>
+      </c>
+      <c r="K55" s="8">
+        <v>1</v>
+      </c>
+      <c r="L55" s="8">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>6</v>
+      </c>
+      <c r="B56" s="10">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5">
+        <v>7</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+      <c r="K56" s="8">
+        <v>1</v>
+      </c>
+      <c r="L56" s="8">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>6</v>
+      </c>
+      <c r="B57" s="10">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5">
+        <v>7</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="8">
+        <v>1</v>
+      </c>
+      <c r="L57" s="8">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>6</v>
+      </c>
+      <c r="B58" s="10">
+        <v>6</v>
+      </c>
+      <c r="C58" s="5">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5">
+        <v>6</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58" s="9">
+        <v>1</v>
+      </c>
+      <c r="H58" s="9">
+        <v>1</v>
+      </c>
+      <c r="I58" s="7">
+        <v>1</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1</v>
+      </c>
+      <c r="L58" s="8">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>6</v>
+      </c>
+      <c r="B59" s="10">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5">
+        <v>7</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7">
+        <v>1</v>
+      </c>
+      <c r="J59" s="7">
+        <v>1</v>
+      </c>
+      <c r="K59" s="8">
+        <v>1</v>
+      </c>
+      <c r="L59" s="8">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>6</v>
+      </c>
+      <c r="B60" s="10">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5">
+        <v>7</v>
+      </c>
+      <c r="D60" s="5">
+        <v>7</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1</v>
+      </c>
+      <c r="K60" s="8">
+        <v>1</v>
+      </c>
+      <c r="L60" s="8">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>6</v>
+      </c>
+      <c r="B61" s="10">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5">
+        <v>6</v>
+      </c>
+      <c r="D61" s="5">
+        <v>5</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2</v>
+      </c>
+      <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="9">
+        <v>5</v>
+      </c>
+      <c r="I61" s="7">
+        <v>1</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1</v>
+      </c>
+      <c r="K61" s="8">
+        <v>1</v>
+      </c>
+      <c r="L61" s="8">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>6</v>
+      </c>
+      <c r="B62" s="10">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5">
+        <v>6</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6">
+        <v>2</v>
+      </c>
+      <c r="G62" s="9">
+        <v>1</v>
+      </c>
+      <c r="H62" s="9">
+        <v>2</v>
+      </c>
+      <c r="I62" s="7">
+        <v>1</v>
+      </c>
+      <c r="J62" s="7">
+        <v>2</v>
+      </c>
+      <c r="K62" s="8">
+        <v>1</v>
+      </c>
+      <c r="L62" s="8">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5">
+        <v>7</v>
+      </c>
+      <c r="E63" s="6">
+        <v>2</v>
+      </c>
+      <c r="G63" s="9">
+        <v>5</v>
+      </c>
+      <c r="I63" s="7">
+        <v>2</v>
+      </c>
+      <c r="K63" s="8">
+        <v>2</v>
+      </c>
+      <c r="M63" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>6</v>
+      </c>
+      <c r="B64" s="10">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5">
+        <v>5</v>
+      </c>
+      <c r="D64" s="5">
+        <v>5</v>
+      </c>
+      <c r="E64" s="6">
+        <v>2</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2</v>
+      </c>
+      <c r="G64" s="9">
+        <v>3</v>
+      </c>
+      <c r="H64" s="9">
+        <v>2</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1</v>
+      </c>
+      <c r="K64" s="8">
+        <v>1</v>
+      </c>
+      <c r="L64" s="8">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>6</v>
+      </c>
+      <c r="B65" s="10">
+        <v>6</v>
+      </c>
+      <c r="C65" s="5">
+        <v>6</v>
+      </c>
+      <c r="D65" s="5">
+        <v>5</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="9">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7">
+        <v>1</v>
+      </c>
+      <c r="J65" s="7">
+        <v>1</v>
+      </c>
+      <c r="K65" s="8">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
+        <v>6</v>
+      </c>
+      <c r="B66" s="10">
+        <v>6</v>
+      </c>
+      <c r="C66" s="5">
+        <v>6</v>
+      </c>
+      <c r="D66" s="5">
+        <v>6</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="9">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7">
+        <v>1</v>
+      </c>
+      <c r="J66" s="7">
+        <v>1</v>
+      </c>
+      <c r="K66" s="8">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="10">
+        <v>6</v>
+      </c>
+      <c r="B67" s="10">
+        <v>6</v>
+      </c>
+      <c r="C67" s="5">
+        <v>6</v>
+      </c>
+      <c r="D67" s="5">
+        <v>6</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="9">
+        <v>1</v>
+      </c>
+      <c r="H67" s="9">
+        <v>1</v>
+      </c>
+      <c r="I67" s="7">
+        <v>1</v>
+      </c>
+      <c r="J67" s="7">
+        <v>1</v>
+      </c>
+      <c r="K67" s="8">
+        <v>1</v>
+      </c>
+      <c r="L67" s="8">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="10">
+        <v>6</v>
+      </c>
+      <c r="B68" s="10">
+        <v>6</v>
+      </c>
+      <c r="C68" s="5">
+        <v>5</v>
+      </c>
+      <c r="D68" s="5">
+        <v>6</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9">
+        <v>1</v>
+      </c>
+      <c r="I68" s="7">
+        <v>1</v>
+      </c>
+      <c r="J68" s="7">
+        <v>1</v>
+      </c>
+      <c r="K68" s="8">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="10">
+        <v>6</v>
+      </c>
+      <c r="B69" s="10">
+        <v>6</v>
+      </c>
+      <c r="C69" s="5">
+        <v>5</v>
+      </c>
+      <c r="D69" s="5">
+        <v>5</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" s="9">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7">
+        <v>1</v>
+      </c>
+      <c r="J69" s="7">
+        <v>1</v>
+      </c>
+      <c r="K69" s="8">
+        <v>1</v>
+      </c>
+      <c r="L69" s="8">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>6</v>
+      </c>
+      <c r="B70" s="10">
+        <v>6</v>
+      </c>
+      <c r="C70" s="5">
+        <v>6</v>
+      </c>
+      <c r="D70" s="5">
+        <v>6</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2</v>
+      </c>
+      <c r="F70" s="6">
+        <v>2</v>
+      </c>
+      <c r="G70" s="9">
+        <v>2</v>
+      </c>
+      <c r="H70" s="9">
+        <v>2</v>
+      </c>
+      <c r="I70" s="7">
+        <v>1</v>
+      </c>
+      <c r="J70" s="7">
+        <v>1</v>
+      </c>
+      <c r="K70" s="8">
+        <v>1</v>
+      </c>
+      <c r="L70" s="8">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>6</v>
+      </c>
+      <c r="B71" s="10">
+        <v>6</v>
+      </c>
+      <c r="C71" s="5">
+        <v>6</v>
+      </c>
+      <c r="D71" s="5">
+        <v>6</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1</v>
+      </c>
+      <c r="I71" s="7">
+        <v>1</v>
+      </c>
+      <c r="J71" s="7">
+        <v>1</v>
+      </c>
+      <c r="K71" s="8">
+        <v>1</v>
+      </c>
+      <c r="L71" s="8">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>6</v>
+      </c>
+      <c r="B72" s="10">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5">
+        <v>5</v>
+      </c>
+      <c r="D72" s="5">
+        <v>4</v>
+      </c>
+      <c r="E72" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" s="6">
+        <v>2</v>
+      </c>
+      <c r="G72" s="9">
+        <v>4</v>
+      </c>
+      <c r="H72" s="9">
+        <v>4</v>
+      </c>
+      <c r="I72" s="7">
+        <v>1</v>
+      </c>
+      <c r="J72" s="7">
+        <v>1</v>
+      </c>
+      <c r="K72" s="8">
+        <v>1</v>
+      </c>
+      <c r="L72" s="8">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>1</v>
+      </c>
+      <c r="B73" s="10">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73" s="9">
+        <v>1</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7">
+        <v>1</v>
+      </c>
+      <c r="J73" s="7">
+        <v>1</v>
+      </c>
+      <c r="K73" s="8">
+        <v>1</v>
+      </c>
+      <c r="L73" s="8">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="10">
+        <v>6</v>
+      </c>
+      <c r="B74" s="10">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5">
+        <v>5</v>
+      </c>
+      <c r="D74" s="5">
+        <v>5</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+      <c r="G74" s="9">
+        <v>2</v>
+      </c>
+      <c r="H74" s="9">
+        <v>1</v>
+      </c>
+      <c r="I74" s="7">
+        <v>1</v>
+      </c>
+      <c r="J74" s="7">
+        <v>1</v>
+      </c>
+      <c r="K74" s="8">
+        <v>1</v>
+      </c>
+      <c r="L74" s="8">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="10">
+        <v>6</v>
+      </c>
+      <c r="B75" s="10">
+        <v>6</v>
+      </c>
+      <c r="C75" s="5">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5">
+        <v>6</v>
+      </c>
+      <c r="E75" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" s="6">
+        <v>2</v>
+      </c>
+      <c r="G75" s="9">
+        <v>3</v>
+      </c>
+      <c r="H75" s="9">
+        <v>3</v>
+      </c>
+      <c r="I75" s="7">
+        <v>1</v>
+      </c>
+      <c r="J75" s="7">
+        <v>1</v>
+      </c>
+      <c r="K75" s="8">
+        <v>1</v>
+      </c>
+      <c r="L75" s="8">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="10">
+        <v>6</v>
+      </c>
+      <c r="B76" s="10">
+        <v>6</v>
+      </c>
+      <c r="C76" s="5">
+        <v>5</v>
+      </c>
+      <c r="D76" s="5">
+        <v>6</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6">
+        <v>2</v>
+      </c>
+      <c r="G76" s="9">
+        <v>1</v>
+      </c>
+      <c r="H76" s="9">
+        <v>1</v>
+      </c>
+      <c r="I76" s="7">
+        <v>1</v>
+      </c>
+      <c r="J76" s="7">
+        <v>1</v>
+      </c>
+      <c r="K76" s="8">
+        <v>1</v>
+      </c>
+      <c r="L76" s="8">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="10">
+        <v>6</v>
+      </c>
+      <c r="B77" s="10">
+        <v>6</v>
+      </c>
+      <c r="C77" s="5">
+        <v>6</v>
+      </c>
+      <c r="D77" s="5">
+        <v>6</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+      <c r="G77" s="9">
+        <v>1</v>
+      </c>
+      <c r="H77" s="9">
+        <v>1</v>
+      </c>
+      <c r="I77" s="7">
+        <v>1</v>
+      </c>
+      <c r="J77" s="7">
+        <v>1</v>
+      </c>
+      <c r="K77" s="8">
+        <v>1</v>
+      </c>
+      <c r="L77" s="8">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>6</v>
+      </c>
+      <c r="B78" s="10">
+        <v>6</v>
+      </c>
+      <c r="C78" s="5">
+        <v>6</v>
+      </c>
+      <c r="D78" s="5">
+        <v>5</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1</v>
+      </c>
+      <c r="G78" s="9">
+        <v>1</v>
+      </c>
+      <c r="H78" s="9">
+        <v>1</v>
+      </c>
+      <c r="I78" s="7">
+        <v>1</v>
+      </c>
+      <c r="J78" s="7">
+        <v>1</v>
+      </c>
+      <c r="K78" s="8">
+        <v>1</v>
+      </c>
+      <c r="L78" s="8">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>6</v>
+      </c>
+      <c r="B79" s="10">
+        <v>6</v>
+      </c>
+      <c r="C79" s="5">
+        <v>6</v>
+      </c>
+      <c r="D79" s="5">
+        <v>6</v>
+      </c>
+      <c r="E79" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" s="6">
+        <v>2</v>
+      </c>
+      <c r="G79" s="9">
+        <v>2</v>
+      </c>
+      <c r="H79" s="9">
+        <v>3</v>
+      </c>
+      <c r="I79" s="7">
+        <v>1</v>
+      </c>
+      <c r="J79" s="7">
+        <v>1</v>
+      </c>
+      <c r="K79" s="8">
+        <v>1</v>
+      </c>
+      <c r="L79" s="8">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>6</v>
+      </c>
+      <c r="B80" s="10">
+        <v>6</v>
+      </c>
+      <c r="C80" s="5">
+        <v>7</v>
+      </c>
+      <c r="D80" s="5">
+        <v>7</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+      <c r="F80" s="6">
+        <v>2</v>
+      </c>
+      <c r="G80" s="9">
+        <v>1</v>
+      </c>
+      <c r="H80" s="9">
+        <v>2</v>
+      </c>
+      <c r="I80" s="7">
+        <v>1</v>
+      </c>
+      <c r="J80" s="7">
+        <v>1</v>
+      </c>
+      <c r="K80" s="8">
+        <v>1</v>
+      </c>
+      <c r="L80" s="8">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>6</v>
+      </c>
+      <c r="B81" s="10">
+        <v>6</v>
+      </c>
+      <c r="C81" s="5">
+        <v>6</v>
+      </c>
+      <c r="D81" s="5">
+        <v>5</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+      <c r="F81" s="6">
+        <v>2</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="9">
+        <v>4</v>
+      </c>
+      <c r="I81" s="7">
+        <v>1</v>
+      </c>
+      <c r="J81" s="7">
+        <v>1</v>
+      </c>
+      <c r="K81" s="8">
+        <v>1</v>
+      </c>
+      <c r="L81" s="8">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="10">
+        <v>6</v>
+      </c>
+      <c r="B82" s="10">
+        <v>6</v>
+      </c>
+      <c r="C82" s="5">
+        <v>6</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" s="6">
+        <v>2</v>
+      </c>
+      <c r="G82" s="9">
+        <v>4</v>
+      </c>
+      <c r="H82" s="9">
+        <v>1</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1</v>
+      </c>
+      <c r="J82" s="7">
+        <v>1</v>
+      </c>
+      <c r="K82" s="8">
+        <v>1</v>
+      </c>
+      <c r="L82" s="8">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="10">
+        <v>6</v>
+      </c>
+      <c r="B83" s="10">
+        <v>6</v>
+      </c>
+      <c r="C83" s="5">
+        <v>5</v>
+      </c>
+      <c r="D83" s="5">
+        <v>6</v>
+      </c>
+      <c r="E83" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" s="6">
+        <v>2</v>
+      </c>
+      <c r="G83" s="9">
+        <v>2</v>
+      </c>
+      <c r="H83" s="9">
+        <v>4</v>
+      </c>
+      <c r="I83" s="7">
+        <v>1</v>
+      </c>
+      <c r="J83" s="7">
+        <v>1</v>
+      </c>
+      <c r="K83" s="8">
+        <v>1</v>
+      </c>
+      <c r="L83" s="8">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="10">
+        <v>6</v>
+      </c>
+      <c r="B84" s="10">
+        <v>1</v>
+      </c>
+      <c r="C84" s="5">
+        <v>6</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+      <c r="F84" s="6">
+        <v>1</v>
+      </c>
+      <c r="G84" s="9">
+        <v>1</v>
+      </c>
+      <c r="H84" s="9">
+        <v>1</v>
+      </c>
+      <c r="I84" s="7">
+        <v>1</v>
+      </c>
+      <c r="J84" s="7">
+        <v>2</v>
+      </c>
+      <c r="K84" s="8">
+        <v>1</v>
+      </c>
+      <c r="L84" s="8">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="10">
+        <v>6</v>
+      </c>
+      <c r="B85" s="10">
+        <v>6</v>
+      </c>
+      <c r="C85" s="5">
+        <v>7</v>
+      </c>
+      <c r="D85" s="5">
+        <v>7</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1</v>
+      </c>
+      <c r="G85" s="9">
+        <v>1</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7">
+        <v>1</v>
+      </c>
+      <c r="J85" s="7">
+        <v>1</v>
+      </c>
+      <c r="K85" s="8">
+        <v>1</v>
+      </c>
+      <c r="L85" s="8">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="10">
+        <v>6</v>
+      </c>
+      <c r="B86" s="10">
+        <v>6</v>
+      </c>
+      <c r="C86" s="5">
+        <v>6</v>
+      </c>
+      <c r="D86" s="5">
+        <v>6</v>
+      </c>
+      <c r="E86" s="6">
+        <v>2</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+      <c r="G86" s="9">
+        <v>3</v>
+      </c>
+      <c r="H86" s="9">
+        <v>1</v>
+      </c>
+      <c r="I86" s="7">
+        <v>1</v>
+      </c>
+      <c r="J86" s="7">
+        <v>1</v>
+      </c>
+      <c r="K86" s="8">
+        <v>1</v>
+      </c>
+      <c r="L86" s="8">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="10">
+        <v>6</v>
+      </c>
+      <c r="B87" s="10">
+        <v>6</v>
+      </c>
+      <c r="C87" s="5">
+        <v>6</v>
+      </c>
+      <c r="D87" s="5">
+        <v>6</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
+      <c r="G87" s="9">
+        <v>1</v>
+      </c>
+      <c r="H87" s="9">
+        <v>1</v>
+      </c>
+      <c r="I87" s="7">
+        <v>1</v>
+      </c>
+      <c r="J87" s="7">
+        <v>1</v>
+      </c>
+      <c r="K87" s="8">
+        <v>1</v>
+      </c>
+      <c r="L87" s="8">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="10">
+        <v>6</v>
+      </c>
+      <c r="B88" s="10">
+        <v>6</v>
+      </c>
+      <c r="C88" s="5">
+        <v>4</v>
+      </c>
+      <c r="D88" s="5">
+        <v>7</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1</v>
+      </c>
+      <c r="G88" s="9">
+        <v>1</v>
+      </c>
+      <c r="H88" s="9">
+        <v>1</v>
+      </c>
+      <c r="I88" s="7">
+        <v>1</v>
+      </c>
+      <c r="J88" s="7">
+        <v>1</v>
+      </c>
+      <c r="K88" s="8">
+        <v>1</v>
+      </c>
+      <c r="L88" s="8">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="10">
+        <v>6</v>
+      </c>
+      <c r="B89" s="10">
+        <v>6</v>
+      </c>
+      <c r="C89" s="5">
+        <v>7</v>
+      </c>
+      <c r="D89" s="5">
+        <v>7</v>
+      </c>
+      <c r="E89" s="6">
+        <v>2</v>
+      </c>
+      <c r="F89" s="6">
+        <v>2</v>
+      </c>
+      <c r="G89" s="9">
+        <v>3</v>
+      </c>
+      <c r="H89" s="9">
+        <v>4</v>
+      </c>
+      <c r="I89" s="7">
+        <v>1</v>
+      </c>
+      <c r="J89" s="7">
+        <v>1</v>
+      </c>
+      <c r="K89" s="8">
+        <v>1</v>
+      </c>
+      <c r="L89" s="8">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="10">
+        <v>6</v>
+      </c>
+      <c r="B90" s="10">
+        <v>6</v>
+      </c>
+      <c r="C90" s="5">
+        <v>7</v>
+      </c>
+      <c r="D90" s="5">
+        <v>7</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1</v>
+      </c>
+      <c r="H90" s="9">
+        <v>1</v>
+      </c>
+      <c r="I90" s="7">
+        <v>1</v>
+      </c>
+      <c r="J90" s="7">
+        <v>1</v>
+      </c>
+      <c r="K90" s="8">
+        <v>1</v>
+      </c>
+      <c r="L90" s="8">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="10">
+        <v>6</v>
+      </c>
+      <c r="B91" s="10">
+        <v>6</v>
+      </c>
+      <c r="C91" s="5">
+        <v>7</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1</v>
+      </c>
+      <c r="G91" s="9">
+        <v>1</v>
+      </c>
+      <c r="H91" s="9">
+        <v>1</v>
+      </c>
+      <c r="I91" s="7">
+        <v>1</v>
+      </c>
+      <c r="J91" s="7">
+        <v>1</v>
+      </c>
+      <c r="K91" s="8">
+        <v>1</v>
+      </c>
+      <c r="L91" s="8">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="10">
+        <v>6</v>
+      </c>
+      <c r="B92" s="10">
+        <v>6</v>
+      </c>
+      <c r="C92" s="5">
+        <v>5</v>
+      </c>
+      <c r="D92" s="5">
+        <v>5</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="9">
+        <v>1</v>
+      </c>
+      <c r="H92" s="9">
+        <v>1</v>
+      </c>
+      <c r="I92" s="7">
+        <v>1</v>
+      </c>
+      <c r="J92" s="7">
+        <v>1</v>
+      </c>
+      <c r="K92" s="8">
+        <v>1</v>
+      </c>
+      <c r="L92" s="8">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="10">
+        <v>6</v>
+      </c>
+      <c r="B93" s="10">
+        <v>6</v>
+      </c>
+      <c r="C93" s="5">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5">
+        <v>6</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" s="9">
+        <v>1</v>
+      </c>
+      <c r="I93" s="7">
+        <v>1</v>
+      </c>
+      <c r="J93" s="7">
+        <v>1</v>
+      </c>
+      <c r="K93" s="8">
+        <v>1</v>
+      </c>
+      <c r="L93" s="8">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="10">
+        <v>6</v>
+      </c>
+      <c r="B94" s="10">
+        <v>6</v>
+      </c>
+      <c r="C94" s="5">
+        <v>5</v>
+      </c>
+      <c r="D94" s="5">
+        <v>7</v>
+      </c>
+      <c r="E94" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" s="6">
+        <v>1</v>
+      </c>
+      <c r="G94" s="9">
+        <v>2</v>
+      </c>
+      <c r="H94" s="9">
+        <v>1</v>
+      </c>
+      <c r="I94" s="7">
+        <v>1</v>
+      </c>
+      <c r="J94" s="7">
+        <v>1</v>
+      </c>
+      <c r="K94" s="8">
+        <v>1</v>
+      </c>
+      <c r="L94" s="8">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="10">
+        <v>6</v>
+      </c>
+      <c r="B95" s="10">
+        <v>6</v>
+      </c>
+      <c r="C95" s="5">
+        <v>7</v>
+      </c>
+      <c r="D95" s="5">
+        <v>5</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
+      <c r="G95" s="9">
+        <v>1</v>
+      </c>
+      <c r="H95" s="9">
+        <v>1</v>
+      </c>
+      <c r="I95" s="7">
+        <v>1</v>
+      </c>
+      <c r="J95" s="7">
+        <v>1</v>
+      </c>
+      <c r="K95" s="8">
+        <v>1</v>
+      </c>
+      <c r="L95" s="8">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="10">
+        <v>6</v>
+      </c>
+      <c r="B96" s="10">
+        <v>6</v>
+      </c>
+      <c r="C96" s="5">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5">
+        <v>7</v>
+      </c>
+      <c r="E96" s="6">
+        <v>2</v>
+      </c>
+      <c r="F96" s="6">
+        <v>2</v>
+      </c>
+      <c r="G96" s="9">
+        <v>3</v>
+      </c>
+      <c r="H96" s="9">
+        <v>4</v>
+      </c>
+      <c r="I96" s="7">
+        <v>1</v>
+      </c>
+      <c r="J96" s="7">
+        <v>1</v>
+      </c>
+      <c r="K96" s="8">
+        <v>1</v>
+      </c>
+      <c r="L96" s="8">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="10">
+        <v>6</v>
+      </c>
+      <c r="B97" s="10">
+        <v>6</v>
+      </c>
+      <c r="C97" s="5">
+        <v>6</v>
+      </c>
+      <c r="D97" s="5">
+        <v>7</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1</v>
+      </c>
+      <c r="H97" s="9">
+        <v>1</v>
+      </c>
+      <c r="I97" s="7">
+        <v>1</v>
+      </c>
+      <c r="J97" s="7">
+        <v>1</v>
+      </c>
+      <c r="K97" s="8">
+        <v>1</v>
+      </c>
+      <c r="L97" s="8">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M98" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B99" s="10">
+        <v>6</v>
+      </c>
+      <c r="D99" s="5">
+        <v>4</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1</v>
+      </c>
+      <c r="H99" s="9">
+        <v>1</v>
+      </c>
+      <c r="J99" s="7">
+        <v>1</v>
+      </c>
+      <c r="L99" s="8">
+        <v>1</v>
+      </c>
+      <c r="M99" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="10">
+        <v>6</v>
+      </c>
+      <c r="B100" s="10">
+        <v>6</v>
+      </c>
+      <c r="C100" s="5">
+        <v>5</v>
+      </c>
+      <c r="D100" s="5">
+        <v>7</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+      <c r="F100" s="6">
+        <v>2</v>
+      </c>
+      <c r="G100" s="9">
+        <v>1</v>
+      </c>
+      <c r="H100" s="9">
+        <v>3</v>
+      </c>
+      <c r="I100" s="7">
+        <v>1</v>
+      </c>
+      <c r="J100" s="7">
+        <v>1</v>
+      </c>
+      <c r="K100" s="8">
+        <v>1</v>
+      </c>
+      <c r="L100" s="8">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" s="10">
+        <v>6</v>
+      </c>
+      <c r="B101" s="10">
+        <v>6</v>
+      </c>
+      <c r="C101" s="5">
+        <v>5</v>
+      </c>
+      <c r="D101" s="5">
+        <v>4</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+      <c r="F101" s="6">
+        <v>2</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1</v>
+      </c>
+      <c r="H101" s="9">
+        <v>3</v>
+      </c>
+      <c r="I101" s="7">
+        <v>1</v>
+      </c>
+      <c r="J101" s="7">
+        <v>1</v>
+      </c>
+      <c r="K101" s="8">
+        <v>1</v>
+      </c>
+      <c r="L101" s="8">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="10">
+        <v>1</v>
+      </c>
+      <c r="B102" s="10">
+        <v>1</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+      <c r="F102" s="6">
+        <v>2</v>
+      </c>
+      <c r="G102" s="9">
+        <v>1</v>
+      </c>
+      <c r="H102" s="9">
+        <v>3</v>
+      </c>
+      <c r="I102" s="7">
+        <v>1</v>
+      </c>
+      <c r="J102" s="7">
+        <v>1</v>
+      </c>
+      <c r="K102" s="8">
+        <v>1</v>
+      </c>
+      <c r="L102" s="8">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" s="10">
+        <v>6</v>
+      </c>
+      <c r="B103" s="10">
+        <v>6</v>
+      </c>
+      <c r="C103" s="5">
+        <v>6</v>
+      </c>
+      <c r="D103" s="5">
+        <v>6</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1</v>
+      </c>
+      <c r="H103" s="9">
+        <v>1</v>
+      </c>
+      <c r="I103" s="7">
+        <v>1</v>
+      </c>
+      <c r="J103" s="7">
+        <v>1</v>
+      </c>
+      <c r="K103" s="8">
+        <v>1</v>
+      </c>
+      <c r="L103" s="8">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="10">
+        <v>6</v>
+      </c>
+      <c r="B104" s="10">
+        <v>6</v>
+      </c>
+      <c r="C104" s="5">
+        <v>6</v>
+      </c>
+      <c r="D104" s="5">
+        <v>6</v>
+      </c>
+      <c r="E104" s="6">
+        <v>2</v>
+      </c>
+      <c r="F104" s="6">
+        <v>1</v>
+      </c>
+      <c r="G104" s="9">
+        <v>2</v>
+      </c>
+      <c r="H104" s="9">
+        <v>1</v>
+      </c>
+      <c r="I104" s="7">
+        <v>2</v>
+      </c>
+      <c r="J104" s="7">
+        <v>1</v>
+      </c>
+      <c r="K104" s="8">
+        <v>2</v>
+      </c>
+      <c r="L104" s="8">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="10">
+        <v>6</v>
+      </c>
+      <c r="B105" s="10">
+        <v>6</v>
+      </c>
+      <c r="C105" s="5">
+        <v>6</v>
+      </c>
+      <c r="D105" s="5">
+        <v>6</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" s="6">
+        <v>2</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1</v>
+      </c>
+      <c r="H105" s="9">
+        <v>3</v>
+      </c>
+      <c r="I105" s="7">
+        <v>1</v>
+      </c>
+      <c r="J105" s="7">
+        <v>1</v>
+      </c>
+      <c r="K105" s="8">
+        <v>1</v>
+      </c>
+      <c r="L105" s="8">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="10">
+        <v>6</v>
+      </c>
+      <c r="B106" s="10">
+        <v>6</v>
+      </c>
+      <c r="C106" s="5">
+        <v>7</v>
+      </c>
+      <c r="D106" s="5">
+        <v>6</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+      <c r="F106" s="6">
+        <v>1</v>
+      </c>
+      <c r="G106" s="9">
+        <v>1</v>
+      </c>
+      <c r="H106" s="9">
+        <v>1</v>
+      </c>
+      <c r="I106" s="7">
+        <v>1</v>
+      </c>
+      <c r="J106" s="7">
+        <v>1</v>
+      </c>
+      <c r="K106" s="8">
+        <v>1</v>
+      </c>
+      <c r="L106" s="8">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="10">
+        <v>6</v>
+      </c>
+      <c r="B107" s="10">
+        <v>6</v>
+      </c>
+      <c r="C107" s="5">
+        <v>7</v>
+      </c>
+      <c r="D107" s="5">
+        <v>7</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" s="6">
+        <v>2</v>
+      </c>
+      <c r="G107" s="9">
+        <v>1</v>
+      </c>
+      <c r="H107" s="9">
+        <v>2</v>
+      </c>
+      <c r="I107" s="7">
+        <v>1</v>
+      </c>
+      <c r="J107" s="7">
+        <v>1</v>
+      </c>
+      <c r="K107" s="8">
+        <v>1</v>
+      </c>
+      <c r="L107" s="8">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="10">
+        <v>6</v>
+      </c>
+      <c r="B108" s="10">
+        <v>6</v>
+      </c>
+      <c r="C108" s="5">
+        <v>6</v>
+      </c>
+      <c r="D108" s="5">
+        <v>7</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1</v>
+      </c>
+      <c r="G108" s="9">
+        <v>1</v>
+      </c>
+      <c r="H108" s="9">
+        <v>1</v>
+      </c>
+      <c r="I108" s="7">
+        <v>1</v>
+      </c>
+      <c r="J108" s="7">
+        <v>1</v>
+      </c>
+      <c r="K108" s="8">
+        <v>1</v>
+      </c>
+      <c r="L108" s="8">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="10">
+        <v>6</v>
+      </c>
+      <c r="B109" s="10">
+        <v>6</v>
+      </c>
+      <c r="C109" s="5">
+        <v>7</v>
+      </c>
+      <c r="D109" s="5">
+        <v>7</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+      <c r="F109" s="6">
+        <v>1</v>
+      </c>
+      <c r="G109" s="9">
+        <v>1</v>
+      </c>
+      <c r="H109" s="9">
+        <v>1</v>
+      </c>
+      <c r="I109" s="7">
+        <v>1</v>
+      </c>
+      <c r="J109" s="7">
+        <v>1</v>
+      </c>
+      <c r="K109" s="8">
+        <v>1</v>
+      </c>
+      <c r="L109" s="8">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="10">
+        <v>6</v>
+      </c>
+      <c r="B110" s="10">
+        <v>6</v>
+      </c>
+      <c r="C110" s="5">
+        <v>6</v>
+      </c>
+      <c r="D110" s="5">
+        <v>5</v>
+      </c>
+      <c r="E110" s="6">
+        <v>2</v>
+      </c>
+      <c r="F110" s="6">
+        <v>2</v>
+      </c>
+      <c r="G110" s="9">
+        <v>5</v>
+      </c>
+      <c r="H110" s="9">
+        <v>5</v>
+      </c>
+      <c r="I110" s="7">
+        <v>1</v>
+      </c>
+      <c r="J110" s="7">
+        <v>1</v>
+      </c>
+      <c r="K110" s="8">
+        <v>1</v>
+      </c>
+      <c r="L110" s="8">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="10">
+        <v>6</v>
+      </c>
+      <c r="B111" s="10">
+        <v>6</v>
+      </c>
+      <c r="C111" s="5">
+        <v>7</v>
+      </c>
+      <c r="D111" s="5">
+        <v>7</v>
+      </c>
+      <c r="E111" s="6">
+        <v>2</v>
+      </c>
+      <c r="F111" s="6">
+        <v>2</v>
+      </c>
+      <c r="G111" s="9">
+        <v>3</v>
+      </c>
+      <c r="H111" s="9">
+        <v>3</v>
+      </c>
+      <c r="I111" s="7">
+        <v>1</v>
+      </c>
+      <c r="J111" s="7">
+        <v>1</v>
+      </c>
+      <c r="K111" s="8">
+        <v>1</v>
+      </c>
+      <c r="L111" s="8">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="10">
+        <v>6</v>
+      </c>
+      <c r="B112" s="10">
+        <v>6</v>
+      </c>
+      <c r="C112" s="5">
+        <v>4</v>
+      </c>
+      <c r="D112" s="5">
+        <v>5</v>
+      </c>
+      <c r="E112" s="6">
+        <v>2</v>
+      </c>
+      <c r="F112" s="6">
+        <v>1</v>
+      </c>
+      <c r="G112" s="9">
+        <v>1</v>
+      </c>
+      <c r="H112" s="9">
+        <v>1</v>
+      </c>
+      <c r="I112" s="7">
+        <v>1</v>
+      </c>
+      <c r="J112" s="7">
+        <v>1</v>
+      </c>
+      <c r="K112" s="8">
+        <v>1</v>
+      </c>
+      <c r="L112" s="8">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="10">
+        <v>6</v>
+      </c>
+      <c r="B113" s="10">
+        <v>6</v>
+      </c>
+      <c r="C113" s="5">
+        <v>7</v>
+      </c>
+      <c r="D113" s="5">
+        <v>7</v>
+      </c>
+      <c r="E113" s="6">
+        <v>2</v>
+      </c>
+      <c r="F113" s="6">
+        <v>2</v>
+      </c>
+      <c r="G113" s="9">
+        <v>2</v>
+      </c>
+      <c r="H113" s="9">
+        <v>3</v>
+      </c>
+      <c r="I113" s="7">
+        <v>1</v>
+      </c>
+      <c r="J113" s="7">
+        <v>1</v>
+      </c>
+      <c r="K113" s="8">
+        <v>1</v>
+      </c>
+      <c r="L113" s="8">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="10">
+        <v>6</v>
+      </c>
+      <c r="B114" s="10">
+        <v>6</v>
+      </c>
+      <c r="C114" s="5">
+        <v>7</v>
+      </c>
+      <c r="D114" s="5">
+        <v>6</v>
+      </c>
+      <c r="E114" s="6">
+        <v>2</v>
+      </c>
+      <c r="F114" s="6">
+        <v>2</v>
+      </c>
+      <c r="G114" s="9">
+        <v>3</v>
+      </c>
+      <c r="H114" s="9">
+        <v>2</v>
+      </c>
+      <c r="I114" s="7">
+        <v>1</v>
+      </c>
+      <c r="J114" s="7">
+        <v>1</v>
+      </c>
+      <c r="K114" s="8">
+        <v>1</v>
+      </c>
+      <c r="L114" s="8">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="10">
+        <v>6</v>
+      </c>
+      <c r="B115" s="10">
+        <v>6</v>
+      </c>
+      <c r="C115" s="5">
+        <v>6</v>
+      </c>
+      <c r="D115" s="5">
+        <v>6</v>
+      </c>
+      <c r="E115" s="6">
+        <v>2</v>
+      </c>
+      <c r="F115" s="6">
+        <v>2</v>
+      </c>
+      <c r="G115" s="9">
+        <v>2</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1</v>
+      </c>
+      <c r="I115" s="7">
+        <v>1</v>
+      </c>
+      <c r="J115" s="7">
+        <v>1</v>
+      </c>
+      <c r="K115" s="8">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="10">
+        <v>6</v>
+      </c>
+      <c r="B116" s="10">
+        <v>6</v>
+      </c>
+      <c r="C116" s="5">
+        <v>6</v>
+      </c>
+      <c r="D116" s="5">
+        <v>6</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+      <c r="F116" s="6">
+        <v>1</v>
+      </c>
+      <c r="G116" s="9">
+        <v>1</v>
+      </c>
+      <c r="H116" s="9">
+        <v>1</v>
+      </c>
+      <c r="I116" s="7">
+        <v>1</v>
+      </c>
+      <c r="J116" s="7">
+        <v>1</v>
+      </c>
+      <c r="K116" s="8">
+        <v>1</v>
+      </c>
+      <c r="L116" s="8">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>